--- a/data-set-transit-demand.xlsx
+++ b/data-set-transit-demand.xlsx
@@ -5,34 +5,35 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akshay\OneDrive\Future\Portfolio\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akshay\OneDrive\Future\Portfolio\regression-analysis-in-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Transit demand_data" sheetId="15" r:id="rId1"/>
-    <sheet name="first_transitdemand" sheetId="19" r:id="rId2"/>
-    <sheet name="second_transitdemand" sheetId="20" r:id="rId3"/>
-    <sheet name="Interest rates &amp; home prices" sheetId="8" r:id="rId4"/>
-    <sheet name="regression_homeprices" sheetId="18" r:id="rId5"/>
+    <sheet name="With only price per week" sheetId="21" r:id="rId2"/>
+    <sheet name="first_transitdemand" sheetId="19" r:id="rId3"/>
+    <sheet name="second_transitdemand" sheetId="20" r:id="rId4"/>
+    <sheet name="Interest rates &amp; home prices" sheetId="8" r:id="rId5"/>
+    <sheet name="regression_homeprices" sheetId="18" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">first_transitdemand!$C$43</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">first_transitdemand!$C$43</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="82">
   <si>
     <t>X1</t>
   </si>
@@ -261,6 +262,24 @@
   <si>
     <t>range</t>
   </si>
+  <si>
+    <t>Lower bound</t>
+  </si>
+  <si>
+    <t>Upper bound</t>
+  </si>
+  <si>
+    <t>Observed values</t>
+  </si>
+  <si>
+    <t>Observed value within predicted bounds (TRUE/FALSE)</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Observed Number of Weekly riders</t>
+  </si>
 </sst>
 </file>
 
@@ -448,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -533,6 +552,9 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,6 +673,84 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5012337469156327E-2"/>
+                  <c:y val="5.4200204141149025E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Transit demand_data'!$C$5:$C$31</c:f>
@@ -841,11 +941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="460339808"/>
-        <c:axId val="460342160"/>
+        <c:axId val="334426600"/>
+        <c:axId val="334427384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="460339808"/>
+        <c:axId val="334426600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,12 +1002,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460342160"/>
+        <c:crossAx val="334427384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460342160"/>
+        <c:axId val="334427384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,7 +1064,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460339808"/>
+        <c:crossAx val="334426600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1250,11 +1350,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459634808"/>
-        <c:axId val="459636768"/>
+        <c:axId val="464209856"/>
+        <c:axId val="464211032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459634808"/>
+        <c:axId val="464209856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,12 +1383,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="459636768"/>
+        <c:crossAx val="464211032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459636768"/>
+        <c:axId val="464211032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,7 +1417,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="459634808"/>
+        <c:crossAx val="464209856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1767,11 +1867,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459638336"/>
-        <c:axId val="460343336"/>
+        <c:axId val="464215344"/>
+        <c:axId val="464212208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459638336"/>
+        <c:axId val="464215344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1800,12 +1900,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="460343336"/>
+        <c:crossAx val="464212208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460343336"/>
+        <c:axId val="464212208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,7 +1934,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="459638336"/>
+        <c:crossAx val="464215344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2289,11 +2389,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="460344904"/>
-        <c:axId val="460338632"/>
+        <c:axId val="464210248"/>
+        <c:axId val="464213384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="460344904"/>
+        <c:axId val="464210248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,12 +2422,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="460338632"/>
+        <c:crossAx val="464213384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460338632"/>
+        <c:axId val="464213384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2356,7 +2456,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="460344904"/>
+        <c:crossAx val="464210248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2408,6 +2508,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2810,11 +2911,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="460345296"/>
-        <c:axId val="460338240"/>
+        <c:axId val="464213776"/>
+        <c:axId val="464214168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="460345296"/>
+        <c:axId val="464213776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2836,18 +2937,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="460338240"/>
+        <c:crossAx val="464214168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460338240"/>
+        <c:axId val="464214168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2869,19 +2971,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="460345296"/>
+        <c:crossAx val="464213776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2926,6 +3030,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3328,11 +3433,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="460342552"/>
-        <c:axId val="460343728"/>
+        <c:axId val="464216128"/>
+        <c:axId val="464208680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="460342552"/>
+        <c:axId val="464216128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3354,18 +3459,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="460343728"/>
+        <c:crossAx val="464208680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460343728"/>
+        <c:axId val="464208680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3387,19 +3493,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="460342552"/>
+        <c:crossAx val="464216128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3444,6 +3552,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3664,11 +3773,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="460345688"/>
-        <c:axId val="460339024"/>
+        <c:axId val="464361088"/>
+        <c:axId val="464361872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="460345688"/>
+        <c:axId val="464361088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3690,18 +3799,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="460339024"/>
+        <c:crossAx val="464361872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460339024"/>
+        <c:axId val="464361872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3723,13 +3833,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="460345688"/>
+        <c:crossAx val="464361088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3761,7 +3872,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4007,11 +4117,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="457073496"/>
-        <c:axId val="457074280"/>
+        <c:axId val="464355600"/>
+        <c:axId val="464355992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="457073496"/>
+        <c:axId val="464355600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4068,12 +4178,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457074280"/>
+        <c:crossAx val="464355992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="457074280"/>
+        <c:axId val="464355992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4130,7 +4240,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457073496"/>
+        <c:crossAx val="464355600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4194,7 +4304,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4390,11 +4499,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="457076240"/>
-        <c:axId val="457075848"/>
+        <c:axId val="464360304"/>
+        <c:axId val="464355208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="457076240"/>
+        <c:axId val="464360304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4451,12 +4560,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457075848"/>
+        <c:crossAx val="464355208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="457075848"/>
+        <c:axId val="464355208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4513,7 +4622,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457076240"/>
+        <c:crossAx val="464360304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4875,11 +4984,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="460341376"/>
-        <c:axId val="460341768"/>
+        <c:axId val="462959800"/>
+        <c:axId val="462960192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="460341376"/>
+        <c:axId val="462959800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4936,12 +5045,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460341768"/>
+        <c:crossAx val="462960192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460341768"/>
+        <c:axId val="462960192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4998,7 +5107,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460341376"/>
+        <c:crossAx val="462959800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5358,11 +5467,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459948176"/>
-        <c:axId val="459947784"/>
+        <c:axId val="462952744"/>
+        <c:axId val="462957448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459948176"/>
+        <c:axId val="462952744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5419,12 +5528,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459947784"/>
+        <c:crossAx val="462957448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459947784"/>
+        <c:axId val="462957448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5481,7 +5590,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459948176"/>
+        <c:crossAx val="462952744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5832,11 +5941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459951312"/>
-        <c:axId val="459948960"/>
+        <c:axId val="462955488"/>
+        <c:axId val="462955880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459951312"/>
+        <c:axId val="462955488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5893,12 +6002,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459948960"/>
+        <c:crossAx val="462955880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459948960"/>
+        <c:axId val="462955880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5955,7 +6064,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459951312"/>
+        <c:crossAx val="462955488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6323,11 +6432,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459632064"/>
-        <c:axId val="459637552"/>
+        <c:axId val="462953528"/>
+        <c:axId val="462953920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459632064"/>
+        <c:axId val="462953528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100000"/>
@@ -6384,12 +6493,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459637552"/>
+        <c:crossAx val="462953920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459637552"/>
+        <c:axId val="462953920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6445,7 +6554,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459632064"/>
+        <c:crossAx val="462953528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6542,6 +6651,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6805,11 +6915,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459637944"/>
-        <c:axId val="459635200"/>
+        <c:axId val="462956664"/>
+        <c:axId val="462955096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459637944"/>
+        <c:axId val="462956664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6866,12 +6976,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459635200"/>
+        <c:crossAx val="462955096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459635200"/>
+        <c:axId val="462955096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6928,7 +7038,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459637944"/>
+        <c:crossAx val="462956664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7214,11 +7324,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459638728"/>
-        <c:axId val="459631672"/>
+        <c:axId val="462958232"/>
+        <c:axId val="462954312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459638728"/>
+        <c:axId val="462958232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7247,12 +7357,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="459631672"/>
+        <c:crossAx val="462954312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459631672"/>
+        <c:axId val="462954312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7281,7 +7391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="459638728"/>
+        <c:crossAx val="462958232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7535,11 +7645,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459632848"/>
-        <c:axId val="459633240"/>
+        <c:axId val="462959408"/>
+        <c:axId val="464211424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459632848"/>
+        <c:axId val="462959408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7568,12 +7678,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="459633240"/>
+        <c:crossAx val="464211424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459633240"/>
+        <c:axId val="464211424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7602,7 +7712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="459632848"/>
+        <c:crossAx val="462959408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7856,11 +7966,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459633632"/>
-        <c:axId val="459634024"/>
+        <c:axId val="464210640"/>
+        <c:axId val="464214560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459633632"/>
+        <c:axId val="464210640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7889,12 +7999,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="459634024"/>
+        <c:crossAx val="464214560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459634024"/>
+        <c:axId val="464214560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7923,7 +8033,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="459633632"/>
+        <c:crossAx val="464210640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12541,16 +12651,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>300037</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>288831</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>55748</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>141754</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12571,16 +12681,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>780209</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>833437</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>474848</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>184897</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13236,7 +13346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14034,20 +14146,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -14067,7 +14182,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="32">
-        <v>0.9723643429967247</v>
+        <v>0.96595292293209556</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -14075,7 +14190,7 @@
         <v>46</v>
       </c>
       <c r="B5" s="32">
-        <v>0.94549241553145202</v>
+        <v>0.93306504932105894</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -14083,7 +14198,7 @@
         <v>47</v>
       </c>
       <c r="B6" s="32">
-        <v>0.93558194562807973</v>
+        <v>0.93038765129390133</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -14091,7 +14206,14 @@
         <v>48</v>
       </c>
       <c r="B7" s="32">
-        <v>5406.3701680351205</v>
+        <v>5620.1139316160752</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <f>SQRT(C13/(B8-2))</f>
+        <v>5620.1139316160752</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14130,19 +14252,19 @@
         <v>51</v>
       </c>
       <c r="B12" s="32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" s="32">
-        <v>11154120959.187813</v>
+        <v>11007513388.743227</v>
       </c>
       <c r="D12" s="32">
-        <v>2788530239.7969532</v>
+        <v>11007513388.743227</v>
       </c>
       <c r="E12" s="32">
-        <v>95.403389016873732</v>
+        <v>348.49695109083621</v>
       </c>
       <c r="F12" s="32">
-        <v>1.4386230749298869E-13</v>
+        <v>3.4134003091578758E-16</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -14150,13 +14272,13 @@
         <v>52</v>
       </c>
       <c r="B13" s="32">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" s="32">
-        <v>643034444.66404212</v>
+        <v>789642015.10862744</v>
       </c>
       <c r="D13" s="32">
-        <v>29228838.393820096</v>
+        <v>31585680.604345098</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
@@ -14203,6 +14325,1093 @@
         <v>66</v>
       </c>
     </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="32">
+        <v>197208.34120760381</v>
+      </c>
+      <c r="C17" s="32">
+        <v>2266.481059069858</v>
+      </c>
+      <c r="D17" s="32">
+        <v>87.010804885586026</v>
+      </c>
+      <c r="E17" s="32">
+        <v>1.4666106519056237E-32</v>
+      </c>
+      <c r="F17" s="32">
+        <v>192540.4360873643</v>
+      </c>
+      <c r="G17" s="32">
+        <v>201876.24632784331</v>
+      </c>
+      <c r="H17" s="32">
+        <v>192540.4360873643</v>
+      </c>
+      <c r="I17" s="32">
+        <v>201876.24632784331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="33">
+        <v>-744.74867403954192</v>
+      </c>
+      <c r="C18" s="33">
+        <v>39.894244701920847</v>
+      </c>
+      <c r="D18" s="33">
+        <v>-18.6680730417158</v>
+      </c>
+      <c r="E18" s="33">
+        <v>3.4134003091578758E-16</v>
+      </c>
+      <c r="F18" s="33">
+        <v>-826.91240903612186</v>
+      </c>
+      <c r="G18" s="33">
+        <v>-662.58493904296199</v>
+      </c>
+      <c r="H18" s="33">
+        <v>-826.91240903612186</v>
+      </c>
+      <c r="I18" s="33">
+        <v>-662.58493904296199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="32">
+        <v>1</v>
+      </c>
+      <c r="B25" s="32">
+        <v>186037.11109701067</v>
+      </c>
+      <c r="C25" s="32">
+        <v>5962.8889029893326</v>
+      </c>
+      <c r="D25" s="32">
+        <v>1.0820025089770919</v>
+      </c>
+      <c r="E25">
+        <f>B25-2*$B$7</f>
+        <v>174796.88323377853</v>
+      </c>
+      <c r="F25">
+        <f>B25+2*$B$7</f>
+        <v>197277.33896024281</v>
+      </c>
+      <c r="G25">
+        <f>B25+C25</f>
+        <v>192000</v>
+      </c>
+      <c r="H25" s="9" t="b">
+        <f>AND(G25&gt;=E25,G25&lt;=F25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="32">
+        <v>2</v>
+      </c>
+      <c r="B26" s="32">
+        <v>186037.11109701067</v>
+      </c>
+      <c r="C26" s="32">
+        <v>4362.8889029893326</v>
+      </c>
+      <c r="D26" s="32">
+        <v>0.79167276402822084</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:E51" si="0">B26-2*$B$7</f>
+        <v>174796.88323377853</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26:F51" si="1">B26+2*$B$7</f>
+        <v>197277.33896024281</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:G51" si="2">B26+C26</f>
+        <v>190400</v>
+      </c>
+      <c r="H26" s="9" t="b">
+        <f t="shared" ref="H26:H51" si="3">AND(G26&gt;=E26,G26&lt;=F26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="32">
+        <v>3</v>
+      </c>
+      <c r="B27" s="32">
+        <v>186037.11109701067</v>
+      </c>
+      <c r="C27" s="32">
+        <v>5162.8889029893326</v>
+      </c>
+      <c r="D27" s="32">
+        <v>0.93683763650265639</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>174796.88323377853</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>197277.33896024281</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>191200</v>
+      </c>
+      <c r="H27" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="32">
+        <v>4</v>
+      </c>
+      <c r="B28" s="32">
+        <v>178589.62435661527</v>
+      </c>
+      <c r="C28" s="32">
+        <v>-989.62435661526979</v>
+      </c>
+      <c r="D28" s="32">
+        <v>-0.17957336690706377</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>167349.39649338313</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>189829.85221984741</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>177600</v>
+      </c>
+      <c r="H28" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <f>22.9994 +2*0.437448</f>
+        <v>23.874296000000001</v>
+      </c>
+      <c r="L28">
+        <f>22.9994 -2*0.437448</f>
+        <v>22.124504000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="32">
+        <v>5</v>
+      </c>
+      <c r="B29" s="32">
+        <v>178589.62435661527</v>
+      </c>
+      <c r="C29" s="32">
+        <v>-1789.6243566152698</v>
+      </c>
+      <c r="D29" s="32">
+        <v>-0.32473823938149932</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>167349.39649338313</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>189829.85221984741</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>176800</v>
+      </c>
+      <c r="H29" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="32">
+        <v>6</v>
+      </c>
+      <c r="B30" s="32">
+        <v>178589.62435661527</v>
+      </c>
+      <c r="C30" s="32">
+        <v>-189.62435661526979</v>
+      </c>
+      <c r="D30" s="32">
+        <v>-3.4408494432628167E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>167349.39649338313</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>189829.85221984741</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>178400</v>
+      </c>
+      <c r="H30" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="32">
+        <v>7</v>
+      </c>
+      <c r="B31" s="32">
+        <v>178589.62435661527</v>
+      </c>
+      <c r="C31" s="32">
+        <v>2210.3756433847302</v>
+      </c>
+      <c r="D31" s="32">
+        <v>0.40108612299067858</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>167349.39649338313</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>189829.85221984741</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>180800</v>
+      </c>
+      <c r="H31" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="32">
+        <v>8</v>
+      </c>
+      <c r="B32" s="32">
+        <v>174865.88098641756</v>
+      </c>
+      <c r="C32" s="32">
+        <v>334.11901358244359</v>
+      </c>
+      <c r="D32" s="32">
+        <v>6.0627929997474544E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>163625.65312318542</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>186106.1088496497</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>175200</v>
+      </c>
+      <c r="H32" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="32">
+        <v>9</v>
+      </c>
+      <c r="B33" s="32">
+        <v>174865.88098641756</v>
+      </c>
+      <c r="C33" s="32">
+        <v>-465.88098641755641</v>
+      </c>
+      <c r="D33" s="32">
+        <v>-8.4536942476961044E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>163625.65312318542</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>186106.1088496497</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>174400</v>
+      </c>
+      <c r="H33" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="32">
+        <v>10</v>
+      </c>
+      <c r="B34" s="32">
+        <v>174865.88098641756</v>
+      </c>
+      <c r="C34" s="32">
+        <v>-945.88098641755641</v>
+      </c>
+      <c r="D34" s="32">
+        <v>-0.17163586596162239</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>163625.65312318542</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>186106.1088496497</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>173920</v>
+      </c>
+      <c r="H34" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="32">
+        <v>11</v>
+      </c>
+      <c r="B35" s="32">
+        <v>174865.88098641756</v>
+      </c>
+      <c r="C35" s="32">
+        <v>-2065.8809864175564</v>
+      </c>
+      <c r="D35" s="32">
+        <v>-0.37486668742583223</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>163625.65312318542</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>186106.1088496497</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>172800</v>
+      </c>
+      <c r="H35" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="32">
+        <v>12</v>
+      </c>
+      <c r="B36" s="32">
+        <v>167418.39424602213</v>
+      </c>
+      <c r="C36" s="32">
+        <v>-4218.3942460221297</v>
+      </c>
+      <c r="D36" s="32">
+        <v>-0.76545332846336911</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>156178.16638278999</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>178658.62210925427</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>163200</v>
+      </c>
+      <c r="H36" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="32">
+        <v>13</v>
+      </c>
+      <c r="B37" s="32">
+        <v>167418.39424602213</v>
+      </c>
+      <c r="C37" s="32">
+        <v>-5818.3942460221297</v>
+      </c>
+      <c r="D37" s="32">
+        <v>-1.0557830734122402</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>156178.16638278999</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>178658.62210925427</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>161600</v>
+      </c>
+      <c r="H37" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="32">
+        <v>14</v>
+      </c>
+      <c r="B38" s="32">
+        <v>167418.39424602213</v>
+      </c>
+      <c r="C38" s="32">
+        <v>-5818.3942460221297</v>
+      </c>
+      <c r="D38" s="32">
+        <v>-1.0557830734122402</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>156178.16638278999</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>178658.62210925427</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>161600</v>
+      </c>
+      <c r="H38" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="32">
+        <v>15</v>
+      </c>
+      <c r="B39" s="32">
+        <v>167418.39424602213</v>
+      </c>
+      <c r="C39" s="32">
+        <v>-6618.3942460221297</v>
+      </c>
+      <c r="D39" s="32">
+        <v>-1.2009479458866759</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>156178.16638278999</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>178658.62210925427</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>160800</v>
+      </c>
+      <c r="H39" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="32">
+        <v>16</v>
+      </c>
+      <c r="B40" s="32">
+        <v>167418.39424602213</v>
+      </c>
+      <c r="C40" s="32">
+        <v>-8218.3942460221297</v>
+      </c>
+      <c r="D40" s="32">
+        <v>-1.4912776908355472</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>156178.16638278999</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>178658.62210925427</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>159200</v>
+      </c>
+      <c r="H40" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
+        <v>17</v>
+      </c>
+      <c r="B41" s="32">
+        <v>148799.67739503359</v>
+      </c>
+      <c r="C41" s="32">
+        <v>0.32260496640810743</v>
+      </c>
+      <c r="D41" s="32">
+        <v>5.8538636010315615E-5</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>137559.44953180145</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>160039.90525826573</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>148800</v>
+      </c>
+      <c r="H41" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="32">
+        <v>18</v>
+      </c>
+      <c r="B42" s="32">
+        <v>121243.97645557053</v>
+      </c>
+      <c r="C42" s="32">
+        <v>-5547.9764555705333</v>
+      </c>
+      <c r="D42" s="32">
+        <v>-1.0067141183300845</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>110003.74859233838</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>132484.20431880269</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>115696</v>
+      </c>
+      <c r="H42" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="32">
+        <v>19</v>
+      </c>
+      <c r="B43" s="32">
+        <v>141352.19065463817</v>
+      </c>
+      <c r="C43" s="32">
+        <v>5847.8093453618349</v>
+      </c>
+      <c r="D43" s="32">
+        <v>1.0611206223428293</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>130111.96279140601</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>152592.4185178703</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>147200</v>
+      </c>
+      <c r="H43" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="32">
+        <v>20</v>
+      </c>
+      <c r="B44" s="32">
+        <v>141352.19065463817</v>
+      </c>
+      <c r="C44" s="32">
+        <v>9047.8093453618349</v>
+      </c>
+      <c r="D44" s="32">
+        <v>1.6417801122405715</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>130111.96279140601</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>152592.4185178703</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>150400</v>
+      </c>
+      <c r="H44" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="32">
+        <v>21</v>
+      </c>
+      <c r="B45" s="32">
+        <v>141352.19065463817</v>
+      </c>
+      <c r="C45" s="32">
+        <v>10647.809345361835</v>
+      </c>
+      <c r="D45" s="32">
+        <v>1.9321098571894428</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>130111.96279140601</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>152592.4185178703</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>152000</v>
+      </c>
+      <c r="H45" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="32">
+        <v>22</v>
+      </c>
+      <c r="B46" s="32">
+        <v>137628.44728444045</v>
+      </c>
+      <c r="C46" s="32">
+        <v>-1628.4472844404518</v>
+      </c>
+      <c r="D46" s="32">
+        <v>-0.29549167797142389</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>126388.2194212083</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>148868.67514767259</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>136000</v>
+      </c>
+      <c r="H46" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="32">
+        <v>23</v>
+      </c>
+      <c r="B47" s="32">
+        <v>133159.95524020318</v>
+      </c>
+      <c r="C47" s="32">
+        <v>-6919.9552402031841</v>
+      </c>
+      <c r="D47" s="32">
+        <v>-1.2556680249661218</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>121919.72737697103</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>144400.18310343532</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>126240</v>
+      </c>
+      <c r="H47" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="32">
+        <v>24</v>
+      </c>
+      <c r="B48" s="32">
+        <v>124222.97115172869</v>
+      </c>
+      <c r="C48" s="32">
+        <v>-334.97115172869235</v>
+      </c>
+      <c r="D48" s="32">
+        <v>-6.0782555654138051E-2</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>112982.74328849654</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>135463.19901496085</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>123888</v>
+      </c>
+      <c r="H48" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="32">
+        <v>25</v>
+      </c>
+      <c r="B49" s="32">
+        <v>132415.20656616366</v>
+      </c>
+      <c r="C49" s="32">
+        <v>-6335.2065661636589</v>
+      </c>
+      <c r="D49" s="32">
+        <v>-1.1495618165954431</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>121174.9787029315</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>143655.4344293958</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>126080</v>
+      </c>
+      <c r="H49" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="32">
+        <v>26</v>
+      </c>
+      <c r="B50" s="32">
+        <v>139862.69330655909</v>
+      </c>
+      <c r="C50" s="32">
+        <v>11817.306693440914</v>
+      </c>
+      <c r="D50" s="32">
+        <v>2.1443222739308054</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>128622.46544332693</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>151102.92116979123</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>151680</v>
+      </c>
+      <c r="H50" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="33">
+        <v>27</v>
+      </c>
+      <c r="B51" s="33">
+        <v>150289.17474311267</v>
+      </c>
+      <c r="C51" s="33">
+        <v>2510.8252568873286</v>
+      </c>
+      <c r="D51" s="33">
+        <v>0.4556045352770513</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>139048.94687988053</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>161529.40260634481</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>152800</v>
+      </c>
+      <c r="H51" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="35"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="32">
+        <v>0.9723643429967247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="32">
+        <v>0.94549241553145202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="32">
+        <v>0.93558194562807973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="32">
+        <v>5406.3701680351205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="32">
+        <v>4</v>
+      </c>
+      <c r="C12" s="32">
+        <v>11154120959.187813</v>
+      </c>
+      <c r="D12" s="32">
+        <v>2788530239.7969532</v>
+      </c>
+      <c r="E12" s="32">
+        <v>95.403389016873732</v>
+      </c>
+      <c r="F12" s="32">
+        <v>1.4386230749298869E-13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="32">
+        <v>22</v>
+      </c>
+      <c r="C13" s="32">
+        <v>643034444.66404212</v>
+      </c>
+      <c r="D13" s="32">
+        <v>29228838.393820096</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="33">
+        <v>26</v>
+      </c>
+      <c r="C14" s="33">
+        <v>11797155403.851854</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>54</v>
@@ -14370,6 +15579,18 @@
       <c r="C27" s="34" t="s">
         <v>69</v>
       </c>
+      <c r="D27" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="32">
@@ -14381,6 +15602,22 @@
       <c r="C28" s="32">
         <v>3151.0856258843269</v>
       </c>
+      <c r="D28">
+        <f>B28+C28</f>
+        <v>192000</v>
+      </c>
+      <c r="E28">
+        <f>B28-2*$B$7</f>
+        <v>178036.17403804543</v>
+      </c>
+      <c r="F28">
+        <f>B28+2*$B$7</f>
+        <v>199661.65471018592</v>
+      </c>
+      <c r="G28" t="b">
+        <f>AND(D28&gt;=E28,D28&lt;=F28)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="32">
@@ -14392,6 +15629,22 @@
       <c r="C29" s="32">
         <v>2621.0451726173633</v>
       </c>
+      <c r="D29">
+        <f t="shared" ref="D29:D54" si="0">B29+C29</f>
+        <v>190400</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:E54" si="1">B29-2*$B$7</f>
+        <v>176966.21449131239</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F54" si="2">B29+2*$B$7</f>
+        <v>198591.69516345288</v>
+      </c>
+      <c r="G29" t="b">
+        <f t="shared" ref="G29:G54" si="3">AND(D29&gt;=E29,D29&lt;=F29)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="32">
@@ -14403,6 +15656,22 @@
       <c r="C30" s="32">
         <v>2706.167673396063</v>
       </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>191200</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>177681.09199053369</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>199306.57266267418</v>
+      </c>
+      <c r="G30" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="32">
@@ -14414,6 +15683,22 @@
       <c r="C31" s="32">
         <v>-3758.5858517338347</v>
       </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>177600</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>170545.84551566359</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>192171.32618780408</v>
+      </c>
+      <c r="G31" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="32">
@@ -14425,8 +15710,24 @@
       <c r="C32" s="32">
         <v>-2955.1616681290907</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>176800</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>168942.42133205885</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>190567.90200419934</v>
+      </c>
+      <c r="G32" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="32">
         <v>6</v>
       </c>
@@ -14436,8 +15737,24 @@
       <c r="C33" s="32">
         <v>-2291.2715346701443</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>178400</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>169878.5311985999</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>191504.01187074039</v>
+      </c>
+      <c r="G33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="32">
         <v>7</v>
       </c>
@@ -14447,8 +15764,24 @@
       <c r="C34" s="32">
         <v>2278.7801530293655</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>180800</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>167708.47951090039</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>189333.96018304088</v>
+      </c>
+      <c r="G34" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="32">
         <v>8</v>
       </c>
@@ -14458,8 +15791,24 @@
       <c r="C35" s="32">
         <v>646.94051375990966</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>175200</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>163740.31915016985</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>185365.79982231034</v>
+      </c>
+      <c r="G35" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="32">
         <v>9</v>
       </c>
@@ -14469,8 +15818,24 @@
       <c r="C36" s="32">
         <v>381.92028712641331</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>174400</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>163205.33937680334</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>184830.82004894383</v>
+      </c>
+      <c r="G36" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="32">
         <v>10</v>
       </c>
@@ -14480,8 +15845,24 @@
       <c r="C37" s="32">
         <v>484.30439759013825</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>173920</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>162622.95526633962</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>184248.43593848011</v>
+      </c>
+      <c r="G37" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="32">
         <v>11</v>
       </c>
@@ -14491,8 +15872,24 @@
       <c r="C38" s="32">
         <v>-350.81424982676981</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>172800</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>162338.07391375653</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>183963.55458589701</v>
+      </c>
+      <c r="G38" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="32">
         <v>12</v>
       </c>
@@ -14502,8 +15899,24 @@
       <c r="C39" s="32">
         <v>-1282.8893669451645</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>163200</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>153670.14903087492</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>175295.62970301541</v>
+      </c>
+      <c r="G39" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="32">
         <v>13</v>
       </c>
@@ -14513,8 +15926,24 @@
       <c r="C40" s="32">
         <v>-2381.4259846086206</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>161600</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>153168.68564853838</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>174794.16632067887</v>
+      </c>
+      <c r="G40" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="32">
         <v>14</v>
       </c>
@@ -14524,8 +15953,24 @@
       <c r="C41" s="32">
         <v>-4316.9024395857123</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>161600</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>155104.16210351547</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>176729.64277565596</v>
+      </c>
+      <c r="G41" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="32">
         <v>15</v>
       </c>
@@ -14535,8 +15980,24 @@
       <c r="C42" s="32">
         <v>-5344.2045025376719</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>160800</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>155331.46416646743</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>176956.94483860792</v>
+      </c>
+      <c r="G42" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="32">
         <v>16</v>
       </c>
@@ -14546,8 +16007,24 @@
       <c r="C43" s="32">
         <v>-3608.6866959499021</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>159200</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>151995.94635987966</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>173621.42703202015</v>
+      </c>
+      <c r="G43" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="32">
         <v>17</v>
       </c>
@@ -14557,8 +16034,24 @@
       <c r="C44" s="32">
         <v>3747.0894050321076</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>148800</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>134240.17025889765</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>155865.65093103814</v>
+      </c>
+      <c r="G44" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="32">
         <v>18</v>
       </c>
@@ -14568,8 +16061,24 @@
       <c r="C45" s="32">
         <v>-3876.6668836225144</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>115696</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>108759.92654755227</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>130385.40721969276</v>
+      </c>
+      <c r="G45" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="32">
         <v>19</v>
       </c>
@@ -14579,8 +16088,24 @@
       <c r="C46" s="32">
         <v>7289.5866694689612</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>147200</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>129097.67299446079</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>150723.15366660128</v>
+      </c>
+      <c r="G46" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="32">
         <v>20</v>
       </c>
@@ -14590,8 +16115,24 @@
       <c r="C47" s="32">
         <v>10982.058474938793</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>150400</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>128605.20118899096</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>150230.68186113145</v>
+      </c>
+      <c r="G47" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="32">
         <v>21</v>
       </c>
@@ -14601,8 +16142,24 @@
       <c r="C48" s="32">
         <v>10125.171045161114</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>152000</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>131062.08861876864</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>152687.56929090913</v>
+      </c>
+      <c r="G48" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="32">
         <v>22</v>
       </c>
@@ -14612,8 +16169,24 @@
       <c r="C49" s="32">
         <v>-2044.0583520664368</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>136000</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>127231.31801599619</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>148856.79868813668</v>
+      </c>
+      <c r="G49" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="32">
         <v>23</v>
       </c>
@@ -14623,8 +16196,24 @@
       <c r="C50" s="32">
         <v>-7675.0393146167335</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>126240</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>123102.29897854649</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>144727.77965068698</v>
+      </c>
+      <c r="G50" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="32">
         <v>24</v>
       </c>
@@ -14634,8 +16223,24 @@
       <c r="C51" s="32">
         <v>-3291.7633401555358</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>123888</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>116367.02300408529</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>137992.50367622578</v>
+      </c>
+      <c r="G51" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="32">
         <v>25</v>
       </c>
@@ -14645,8 +16250,24 @@
       <c r="C52" s="32">
         <v>-7889.2601444825414</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>126080</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>123156.5198084123</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>144782.00048055279</v>
+      </c>
+      <c r="G52" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="32">
         <v>26</v>
       </c>
@@ -14656,8 +16277,24 @@
       <c r="C53" s="32">
         <v>8499.8010649065545</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>151680</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>132367.4585990232</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>153992.93927116369</v>
+      </c>
+      <c r="G53" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="33">
         <v>27</v>
       </c>
@@ -14667,8 +16304,24 @@
       <c r="C54" s="33">
         <v>-1847.2201539798989</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>152800</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>143834.47981790965</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>165459.96049005014</v>
+      </c>
+      <c r="G54" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C55">
         <f>AVERAGE(C28:C54)</f>
         <v>1.9941513461095317E-11</v>
@@ -14680,11 +16333,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
@@ -15573,7 +17226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -15969,7 +17622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
